--- a/elDnevnik/blanks/jurnal.xlsx
+++ b/elDnevnik/blanks/jurnal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ф.И.О. учащегося</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>по предмету " " за</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
   </si>
 </sst>
 </file>
@@ -360,19 +363,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
+      <selection sqref="A1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -406,8 +411,10 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,8 +448,10 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,8 +485,10 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -570,13 +581,19 @@
       </c>
       <c r="AE5">
         <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>31</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
